--- a/retrieval_and_indexing/pubmed/normative trustworthiness criteria.xlsx
+++ b/retrieval_and_indexing/pubmed/normative trustworthiness criteria.xlsx
@@ -18,8 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Georg Petz</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Georg Petz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+to counteract the Matthew Effect</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Median </t>
   </si>
@@ -85,19 +119,63 @@
   </si>
   <si>
     <t>/PubmedArticle/MedlineCitation/Article/AuthorList/Author/Affiliation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>impact factor of journal / journal names</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>Google Scholar Weights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,13 +195,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -465,9 +561,10 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="84.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -477,8 +574,11 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -491,8 +591,11 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -505,8 +608,11 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -520,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -534,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -548,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -561,8 +667,11 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -576,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -590,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -604,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -616,11 +725,20 @@
       </c>
       <c r="D11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/retrieval_and_indexing/pubmed/normative trustworthiness criteria.xlsx
+++ b/retrieval_and_indexing/pubmed/normative trustworthiness criteria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Median </t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Google Scholar Weights</t>
+  </si>
+  <si>
+    <t>ISI Web of Knowledge</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -731,6 +734,9 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
